--- a/data/trans_bre/P0901-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P0901-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>102,0%</t>
+          <t>86,37%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 6,64</t>
+          <t>-1,95; 6,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-75,53; 1151,89</t>
+          <t>-81,8; 1077,34</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-28,64%</t>
+          <t>-34,51%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 1,72</t>
+          <t>-6,71; 1,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,01; 38,09</t>
+          <t>-68,47; 27,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>29,77%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 5,5</t>
+          <t>-1,05; 5,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 86,49</t>
+          <t>-10,55; 90,48</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>31,56%</t>
+          <t>61,71%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 8,28</t>
+          <t>0,77; 13,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 83,73</t>
+          <t>4,77; 291,83</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>19,79%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 8,09</t>
+          <t>-0,24; 7,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 45,65</t>
+          <t>-1,04; 45,48</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,7</t>
+          <t>15,4</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,43</t>
+          <t>13,34</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>20,84</t>
+          <t>18,78</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,41</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>53,09%</t>
+          <t>84,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>42,95%</t>
+          <t>50,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>76,05%</t>
+          <t>97,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>52,85%</t>
+          <t>10,87%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,59; 18,96</t>
+          <t>9,0; 21,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,63; 21,53</t>
+          <t>5,74; 20,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,77; 26,21</t>
+          <t>11,91; 25,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,39; 19,12</t>
+          <t>-11,48; 13,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>29,34; 84,04</t>
+          <t>39,17; 143,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,05; 65,85</t>
+          <t>18,79; 91,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>51,09; 104,49</t>
+          <t>55,14; 168,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,03; 79,33</t>
+          <t>-59,8; 78,81</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>9,2</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,88</t>
+          <t>14,15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,97</t>
+          <t>19,85</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>20,68</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>80,61%</t>
+          <t>25,42%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>73,94%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>85,58%</t>
+          <t>52,14%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>44,06%</t>
+          <t>58,78%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,04; 18,16</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6,24; 23,39</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>11,83; 27,81</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>14,56; 26,28</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 60,16</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>11,57; 57,58</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>26,66; 81,96</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>36,53; 84,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7,29</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8,88</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8,97</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6,09</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>80,61%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>73,94%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>85,58%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>46,94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>5,71; 9,0</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>7,03; 10,61</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>7,12; 10,77</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>4,01; 8,02</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 8,92</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>58,13; 109,02</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>53,85; 94,54</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>64,83; 110,52</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>26,86; 60,81</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>22,81; 81,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P0901-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P0901-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 4,69</t>
+          <t>-0,16; 4,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 3,63</t>
+          <t>-1,95; 3,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 3,68</t>
+          <t>-0,99; 3,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 6,05</t>
+          <t>-2,05; 5,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 246,56</t>
+          <t>-8,18; 229,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-35,15; 133,18</t>
+          <t>-37,85; 148,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-40,66; 369,06</t>
+          <t>-43,73; 323,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-81,8; 1077,34</t>
+          <t>-74,49; 903,79</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,79</t>
+          <t>2,47; 7,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 3,84</t>
+          <t>-0,85; 3,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 4,33</t>
+          <t>-1,14; 4,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 1,25</t>
+          <t>-6,45; 1,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,84; 343,21</t>
+          <t>60,19; 355,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,85; 148,18</t>
+          <t>-19,33; 145,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 134,99</t>
+          <t>-20,54; 139,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-68,47; 27,7</t>
+          <t>-70,96; 19,91</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 6,71</t>
+          <t>1,28; 7,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,47</t>
+          <t>2,29; 8,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 7,39</t>
+          <t>2,09; 7,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 5,53</t>
+          <t>-0,88; 5,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,39; 173,93</t>
+          <t>19,76; 198,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,87; 160,68</t>
+          <t>28,85; 175,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,69; 230,23</t>
+          <t>37,85; 253,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 90,48</t>
+          <t>-9,23; 89,17</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 10,83</t>
+          <t>3,39; 11,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 10,79</t>
+          <t>3,01; 10,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 6,73</t>
+          <t>-1,03; 6,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 13,74</t>
+          <t>1,35; 14,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,02; 186,22</t>
+          <t>33,7; 192,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,87; 153,29</t>
+          <t>26,72; 149,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 78,25</t>
+          <t>-8,92; 79,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,77; 291,83</t>
+          <t>9,19; 314,84</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 7,31</t>
+          <t>-2,77; 8,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,15; 18,84</t>
+          <t>7,39; 18,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,79; 15,95</t>
+          <t>6,1; 16,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 7,99</t>
+          <t>-0,04; 8,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,23; 57,21</t>
+          <t>-14,96; 66,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>35,55; 138,44</t>
+          <t>37,9; 135,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>37,74; 151,54</t>
+          <t>37,27; 154,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 45,48</t>
+          <t>-0,0; 48,46</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,0; 21,83</t>
+          <t>9,4; 21,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,74; 20,61</t>
+          <t>5,35; 20,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,91; 25,53</t>
+          <t>11,96; 25,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 13,36</t>
+          <t>-10,69; 13,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>39,17; 143,31</t>
+          <t>42,19; 142,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,79; 91,52</t>
+          <t>17,26; 94,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>55,14; 168,72</t>
+          <t>53,92; 159,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-59,8; 78,81</t>
+          <t>-53,68; 78,64</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,04; 18,16</t>
+          <t>-0,49; 17,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,24; 23,39</t>
+          <t>5,56; 23,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,83; 27,81</t>
+          <t>12,01; 27,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,56; 26,28</t>
+          <t>15,33; 26,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,3; 60,16</t>
+          <t>-1,05; 56,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,57; 57,58</t>
+          <t>10,22; 54,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,66; 81,96</t>
+          <t>28,43; 80,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>36,53; 84,27</t>
+          <t>38,57; 82,82</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,0</t>
+          <t>5,74; 8,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,03; 10,61</t>
+          <t>7,01; 10,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,12; 10,77</t>
+          <t>7,16; 10,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,97; 8,92</t>
+          <t>2,64; 9,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>58,13; 109,02</t>
+          <t>57,89; 105,6</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>53,85; 94,54</t>
+          <t>54,3; 97,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>64,83; 110,52</t>
+          <t>63,67; 109,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>22,81; 81,97</t>
+          <t>22,22; 86,49</t>
         </is>
       </c>
     </row>
